--- a/target/classes/TestDataFromExcel/AdTerms.xlsx
+++ b/target/classes/TestDataFromExcel/AdTerms.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GopalBackUp\WorkSpace\APIRestAssuredToolsQA\src\main\java\TestDataFromExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GopalBackUp\WorkSpace\APIRestAssuredToolsQA\src\main\BaseClasses\TestDataFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF14DC6C-C064-47E2-B707-D39D76DAA969}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF7DFD6-AB34-4BF2-ABC6-392A3EB37C17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0F21F1AD-184D-4BDE-858E-738DB5FFC0F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45E80800-D31F-40AA-81EC-4B8B06300BEA}"/>
   </bookViews>
   <sheets>
-    <sheet name="NewTerms" sheetId="1" r:id="rId1"/>
-    <sheet name="EditTerms" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
   <si>
     <t>code</t>
   </si>
@@ -55,6 +55,9 @@
     <t>standardTermType</t>
   </si>
   <si>
+    <t>termUsage</t>
+  </si>
+  <si>
     <t>summerHeaderOrTrailer</t>
   </si>
   <si>
@@ -128,9 +131,6 @@
   </si>
   <si>
     <t>shiftId</t>
-  </si>
-  <si>
-    <t>termUsage</t>
   </si>
   <si>
     <t>createdDateTime</t>
@@ -520,43 +520,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE6929-AEFB-4F93-90E5-ED42CD2AC98E}">
-  <dimension ref="A1:AH5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B189078E-1FF5-49A1-88A1-79E7D10C87FB}">
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -582,82 +587,82 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>33</v>
@@ -868,214 +873,6 @@
         <v>0</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4">
-        <v>2</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1085,11 +882,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF914874-B8E3-4533-B46C-A29E7EB80241}">
-  <dimension ref="A1:AH5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6535D8-5539-44C8-92C3-9A20ABF374A7}">
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,82 +949,82 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>33</v>
@@ -1438,214 +1235,6 @@
         <v>7</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4">
-        <v>2</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>7</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>7</v>
-      </c>
-      <c r="AH5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
